--- a/mooc-microstandard-types.xlsx
+++ b/mooc-microstandard-types.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24780" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="-35020" yWindow="0" windowWidth="32520" windowHeight="22060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="163">
   <si>
     <t>Element</t>
   </si>
@@ -399,6 +399,9 @@
     <t>schema.org/Grade</t>
   </si>
   <si>
+    <t>badge</t>
+  </si>
+  <si>
     <t>totalPoints</t>
   </si>
   <si>
@@ -411,9 +414,6 @@
     <t>progress</t>
   </si>
   <si>
-    <t>badge(s)</t>
-  </si>
-  <si>
     <t>schema.org/Float</t>
   </si>
   <si>
@@ -453,9 +453,6 @@
     <t>???</t>
   </si>
   <si>
-    <t>badgesList?</t>
-  </si>
-  <si>
     <t>schema.org/Badge</t>
   </si>
   <si>
@@ -496,6 +493,21 @@
   </si>
   <si>
     <t>GPL,LGPL, AGPL, CC, CCBYSA, ..., None, Proprietary</t>
+  </si>
+  <si>
+    <t>BadgeList</t>
+  </si>
+  <si>
+    <t>badges</t>
+  </si>
+  <si>
+    <t>learningObjective</t>
+  </si>
+  <si>
+    <t>record</t>
+  </si>
+  <si>
+    <t>schema.org/BadgeList</t>
   </si>
 </sst>
 </file>
@@ -534,7 +546,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -649,6 +661,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2DCDB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -679,7 +697,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="243">
+  <cellStyleXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -923,8 +941,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -965,8 +1003,10 @@
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="243">
+  <cellStyles count="263">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -1088,6 +1128,16 @@
     <cellStyle name="Besuchter Link" xfId="238" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="240" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="262" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -1209,6 +1259,16 @@
     <cellStyle name="Link" xfId="237" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="239" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="261" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1538,10 +1598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="F139" sqref="F139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1790,10 +1850,10 @@
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1">
       <c r="D25" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1">
@@ -1806,10 +1866,10 @@
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1">
       <c r="D27" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1"/>
@@ -1825,11 +1885,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="7" customFormat="1">
-      <c r="B32" s="7" t="s">
+      <c r="D32" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>4</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>8</v>
@@ -1858,11 +1915,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" s="9" customFormat="1">
-      <c r="B37" s="9" t="s">
+      <c r="D37" s="32" t="s">
         <v>79</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>4</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>32</v>
@@ -1880,11 +1934,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" s="12" customFormat="1">
-      <c r="B40" s="12" t="s">
+      <c r="D40" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>4</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>97</v>
@@ -1958,11 +2009,8 @@
       </c>
     </row>
     <row r="51" spans="1:6" s="16" customFormat="1">
-      <c r="B51" s="16" t="s">
+      <c r="D51" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>4</v>
       </c>
       <c r="F51" s="16" t="s">
         <v>60</v>
@@ -2030,7 +2078,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" s="7" customFormat="1">
-      <c r="B60" s="7" t="s">
+      <c r="D60" s="7" t="s">
         <v>52</v>
       </c>
       <c r="F60" s="7" t="s">
@@ -2041,7 +2089,7 @@
       <c r="A62" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="29" t="s">
         <v>109</v>
       </c>
       <c r="C62" s="8" t="s">
@@ -2049,7 +2097,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" s="8" customFormat="1">
-      <c r="B63" s="8" t="s">
+      <c r="D63" s="8" t="s">
         <v>81</v>
       </c>
       <c r="F63" s="17" t="s">
@@ -2144,130 +2192,121 @@
       <c r="C74" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F74" s="12" t="s">
+    </row>
+    <row r="75" spans="1:6" s="12" customFormat="1">
+      <c r="B75" s="24"/>
+      <c r="D75" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F75" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="14" customFormat="1">
-      <c r="A76" s="14" t="s">
+    <row r="77" spans="1:6" s="14" customFormat="1">
+      <c r="A77" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B77" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C76" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76" s="14" t="s">
+      <c r="C77" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="16" customFormat="1">
-      <c r="A78" s="16" t="s">
+    <row r="79" spans="1:6" s="16" customFormat="1">
+      <c r="A79" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B78" s="23" t="s">
+      <c r="B79" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="C78" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" s="16" customFormat="1">
-      <c r="D79" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F79" s="20" t="s">
-        <v>48</v>
+      <c r="C79" s="16" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="16" customFormat="1">
       <c r="D80" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F80" s="20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B82" s="30" t="s">
+    <row r="81" spans="1:6" s="16" customFormat="1">
+      <c r="D81" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F81" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="10" customFormat="1">
+      <c r="A83" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B83" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C82" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="10"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E83" s="10"/>
-      <c r="F83" s="31" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" s="7" customFormat="1">
-      <c r="A85" s="7" t="s">
+      <c r="C83" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="10" customFormat="1">
+      <c r="D84" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F84" s="31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="7" customFormat="1">
+      <c r="A86" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B85" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" s="21" customFormat="1"/>
-    <row r="90" spans="1:6" s="3" customFormat="1">
-      <c r="A90" s="3" t="s">
+    </row>
+    <row r="88" spans="1:6" s="21" customFormat="1"/>
+    <row r="91" spans="1:6" s="3" customFormat="1">
+      <c r="A91" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B91" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" s="3" customFormat="1">
-      <c r="D91" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>94</v>
+      <c r="C91" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="3" customFormat="1">
       <c r="D92" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="3" customFormat="1">
       <c r="D93" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="3" customFormat="1">
       <c r="D94" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>56</v>
@@ -2275,71 +2314,71 @@
     </row>
     <row r="95" spans="1:6" s="3" customFormat="1">
       <c r="D95" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="3" customFormat="1">
       <c r="D96" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F96" s="26" t="s">
-        <v>97</v>
+        <v>102</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="3" customFormat="1">
       <c r="D97" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F97" s="26" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="3" customFormat="1">
       <c r="D98" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F98" s="26" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:6" s="3" customFormat="1">
       <c r="D99" s="3" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="F99" s="26" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="3" customFormat="1">
       <c r="D100" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>48</v>
+        <v>124</v>
+      </c>
+      <c r="F100" s="26" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="3" customFormat="1">
       <c r="D101" s="3" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="3" customFormat="1">
       <c r="D102" s="3" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="3" customFormat="1">
       <c r="D103" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>8</v>
@@ -2347,280 +2386,312 @@
     </row>
     <row r="104" spans="1:6" s="3" customFormat="1">
       <c r="D104" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" s="3" customFormat="1">
+      <c r="D105" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F104" s="3" t="s">
+      <c r="F105" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="3" customFormat="1"/>
-    <row r="106" spans="1:6" s="11" customFormat="1"/>
-    <row r="107" spans="1:6" s="7" customFormat="1" ht="60">
-      <c r="A107" s="7" t="s">
+    <row r="106" spans="1:6" s="3" customFormat="1"/>
+    <row r="107" spans="1:6" s="11" customFormat="1"/>
+    <row r="108" spans="1:6" s="7" customFormat="1" ht="60">
+      <c r="A108" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B108" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C107" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F107" s="27" t="s">
+      <c r="C108" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F108" s="27" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="108" spans="1:6" s="11" customFormat="1">
-      <c r="F108" s="28"/>
-    </row>
-    <row r="109" spans="1:6" s="8" customFormat="1">
-      <c r="A109" s="8" t="s">
+    <row r="109" spans="1:6" s="11" customFormat="1">
+      <c r="F109" s="28"/>
+    </row>
+    <row r="110" spans="1:6" s="8" customFormat="1">
+      <c r="A110" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B110" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C109" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" s="8" customFormat="1">
-      <c r="D110" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="F110" s="29" t="s">
-        <v>139</v>
+      <c r="C110" s="8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="8" customFormat="1">
       <c r="D111" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F111" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="F111" s="29" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="8" customFormat="1">
       <c r="D112" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F112" s="29" t="s">
-        <v>86</v>
+        <v>110</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="113" spans="1:7" s="8" customFormat="1">
       <c r="D113" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F113" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" s="8" customFormat="1">
+      <c r="D114" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F113" s="29" t="s">
+      <c r="F114" s="29" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="114" spans="1:7" s="8" customFormat="1"/>
-    <row r="118" spans="1:7" s="9" customFormat="1">
-      <c r="A118" s="9" t="s">
+    <row r="115" spans="1:7" s="8" customFormat="1"/>
+    <row r="117" spans="1:7" s="9" customFormat="1">
+      <c r="A117" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B117" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C118" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F118" s="9" t="s">
+      <c r="C117" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F117" s="9" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="119" spans="1:7" s="11" customFormat="1"/>
+    <row r="118" spans="1:7" s="11" customFormat="1"/>
+    <row r="119" spans="1:7" s="10" customFormat="1">
+      <c r="A119" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B119" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="120" spans="1:7" s="10" customFormat="1">
-      <c r="A120" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B120" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>4</v>
+      <c r="D120" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F120" s="30" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="121" spans="1:7" s="10" customFormat="1">
       <c r="D121" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F121" s="30" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="F121" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="122" spans="1:7" s="10" customFormat="1">
       <c r="D122" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:7" s="10" customFormat="1">
       <c r="D123" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="F123" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" s="10" customFormat="1">
-      <c r="D124" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F124" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="F123" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="G124" s="10" t="s">
+      <c r="G123" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="126" spans="1:7" s="12" customFormat="1">
-      <c r="A126" s="12" t="s">
+    <row r="125" spans="1:7" s="12" customFormat="1">
+      <c r="A125" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B126" s="12" t="s">
+      <c r="B125" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C126" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F126" s="12" t="s">
+      <c r="C125" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F125" s="12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="127" spans="1:7" s="11" customFormat="1"/>
-    <row r="128" spans="1:7" s="14" customFormat="1" ht="30">
-      <c r="A128" s="14" t="s">
+    <row r="126" spans="1:7" s="11" customFormat="1"/>
+    <row r="127" spans="1:7" s="14" customFormat="1" ht="30">
+      <c r="A127" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B128" s="14" t="s">
+      <c r="B127" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C128" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F128" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" s="11" customFormat="1"/>
-    <row r="130" spans="1:7" s="16" customFormat="1">
-      <c r="A130" s="16" t="s">
+      <c r="C127" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F127" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" s="11" customFormat="1"/>
+    <row r="129" spans="1:6" s="16" customFormat="1">
+      <c r="A129" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B130" s="23" t="s">
+      <c r="B129" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="C130" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" s="16" customFormat="1">
+      <c r="C129" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" s="16" customFormat="1">
+      <c r="D130" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="F130" s="23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" s="16" customFormat="1">
       <c r="D131" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F131" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="G131" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" s="16" customFormat="1">
+        <v>127</v>
+      </c>
+      <c r="F131" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" s="16" customFormat="1">
       <c r="D132" s="16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F132" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" s="16" customFormat="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" s="16" customFormat="1">
       <c r="D133" s="16" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F133" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:7" s="16" customFormat="1">
+    <row r="134" spans="1:6" s="16" customFormat="1">
       <c r="D134" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="F134" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" s="16" customFormat="1">
+        <v>129</v>
+      </c>
+      <c r="F134" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" s="16" customFormat="1">
       <c r="D135" s="16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F135" s="23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="136" spans="1:7" s="16" customFormat="1">
-      <c r="D136" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="F136" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" s="7" customFormat="1">
-      <c r="A138" s="7" t="s">
+    <row r="136" spans="1:6" s="16" customFormat="1">
+      <c r="F136" s="23"/>
+    </row>
+    <row r="137" spans="1:6" s="11" customFormat="1">
+      <c r="F137" s="18"/>
+    </row>
+    <row r="138" spans="1:6" s="3" customFormat="1">
+      <c r="A138" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B138" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F138" s="33"/>
+    </row>
+    <row r="139" spans="1:6" s="3" customFormat="1">
+      <c r="B139" s="26"/>
+      <c r="D139" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F139" s="26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" s="7" customFormat="1">
+      <c r="A141" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B138" s="25" t="s">
+      <c r="B141" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="C138" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" s="7" customFormat="1">
-      <c r="D139" s="7" t="s">
+      <c r="C141" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" s="7" customFormat="1">
+      <c r="D142" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="140" spans="1:7" s="7" customFormat="1">
-      <c r="D140" s="7" t="s">
+    <row r="143" spans="1:6" s="7" customFormat="1">
+      <c r="D143" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="142" spans="1:7" s="8" customFormat="1">
-      <c r="A142" s="8" t="s">
+    <row r="145" spans="1:6" s="8" customFormat="1">
+      <c r="A145" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F145" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B142" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F142" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" s="11" customFormat="1"/>
-    <row r="144" spans="1:7" s="10" customFormat="1">
-      <c r="A144" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B144" s="30" t="s">
+    </row>
+    <row r="146" spans="1:6" s="11" customFormat="1"/>
+    <row r="147" spans="1:6" s="10" customFormat="1">
+      <c r="A147" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C144" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="4:6" s="10" customFormat="1">
-      <c r="D145" s="10" t="s">
+      <c r="C147" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" s="10" customFormat="1">
+      <c r="D148" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F145" s="30" t="s">
+      <c r="F148" s="30" t="s">
         <v>97</v>
       </c>
     </row>
